--- a/data/trans_dic/P34A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,47; 56,69</t>
+          <t>38,19; 58,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,83; 32,94</t>
+          <t>16,62; 33,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,93; 34,95</t>
+          <t>18,6; 34,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,19; 44,34</t>
+          <t>25,33; 44,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,67; 39,48</t>
+          <t>23,41; 38,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,97; 31,31</t>
+          <t>14,76; 31,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,83; 47,67</t>
+          <t>29,86; 47,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,12; 43,4</t>
+          <t>29,69; 43,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,08; 45,35</t>
+          <t>33,88; 45,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,79; 29,22</t>
+          <t>17,81; 29,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,34; 38,33</t>
+          <t>26,39; 38,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,59; 40,88</t>
+          <t>29,92; 41,16</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,22; 48,53</t>
+          <t>40,25; 48,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,23; 26,7</t>
+          <t>19,35; 26,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,65; 41,49</t>
+          <t>33,2; 41,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,92; 43,04</t>
+          <t>34,13; 42,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,34; 47,37</t>
+          <t>39,43; 47,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,12; 31,92</t>
+          <t>24,5; 32,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,28; 51,66</t>
+          <t>43,11; 51,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,08; 41,53</t>
+          <t>35,0; 41,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,8; 46,92</t>
+          <t>41,11; 46,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,82; 28,11</t>
+          <t>23,06; 28,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,14; 45,07</t>
+          <t>39,5; 45,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>35,75; 41,09</t>
+          <t>35,72; 41,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,03; 45,44</t>
+          <t>38,96; 45,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,22; 27,0</t>
+          <t>21,25; 27,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,95; 37,94</t>
+          <t>32,0; 38,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,57; 35,23</t>
+          <t>26,15; 34,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,5; 50,28</t>
+          <t>44,03; 50,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,35; 39,5</t>
+          <t>33,06; 39,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,68; 46,03</t>
+          <t>39,83; 46,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,2; 40,62</t>
+          <t>35,2; 40,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>42,26; 46,74</t>
+          <t>42,18; 46,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,26; 32,36</t>
+          <t>28,06; 32,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,82; 41,47</t>
+          <t>36,77; 41,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,43; 37,13</t>
+          <t>31,49; 37,02</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,98; 36,41</t>
+          <t>28,89; 36,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,66; 23,62</t>
+          <t>17,84; 24,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,91; 36,86</t>
+          <t>29,62; 36,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,5; 38,27</t>
+          <t>30,38; 38,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,75; 42,94</t>
+          <t>34,96; 42,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,07; 32,08</t>
+          <t>25,1; 31,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,42; 43,57</t>
+          <t>36,19; 43,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,98; 46,89</t>
+          <t>26,31; 47,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,31; 38,64</t>
+          <t>33,12; 38,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,56; 27,0</t>
+          <t>22,3; 26,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,01; 39,03</t>
+          <t>34,09; 39,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,91; 41,05</t>
+          <t>29,55; 41,17</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,17; 46,82</t>
+          <t>40,1; 46,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,19; 24,61</t>
+          <t>19,02; 24,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,01; 35,17</t>
+          <t>28,83; 34,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,12; 32,15</t>
+          <t>25,99; 32,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,0; 56,2</t>
+          <t>49,71; 56,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,74; 33,22</t>
+          <t>27,51; 33,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,64; 45,84</t>
+          <t>39,44; 45,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,43; 43,1</t>
+          <t>37,1; 42,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>45,99; 50,49</t>
+          <t>45,94; 50,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,35; 28,46</t>
+          <t>24,11; 28,18</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35,25; 39,61</t>
+          <t>35,3; 39,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>32,82; 37,08</t>
+          <t>33,0; 37,3</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,18; 42,67</t>
+          <t>39,35; 42,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,01; 23,9</t>
+          <t>21,06; 24,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,19; 35,62</t>
+          <t>32,12; 35,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,61; 34,53</t>
+          <t>30,34; 34,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,36; 47,95</t>
+          <t>44,28; 47,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,27; 32,43</t>
+          <t>29,39; 32,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,15; 44,52</t>
+          <t>40,95; 44,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,53; 41,15</t>
+          <t>35,19; 40,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,42; 44,95</t>
+          <t>42,39; 44,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,74; 27,83</t>
+          <t>25,72; 27,79</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>37,31; 39,61</t>
+          <t>37,13; 39,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>33,95; 37,29</t>
+          <t>34,02; 37,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,19; 58,1</t>
+          <t>37,03; 56,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,62; 33,52</t>
+          <t>17,53; 34,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,6; 34,42</t>
+          <t>18,42; 34,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,41; 38,95</t>
+          <t>23,82; 39,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,76; 31,12</t>
+          <t>15,11; 31,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,86; 47,32</t>
+          <t>30,16; 48,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,88; 45,2</t>
+          <t>32,57; 45,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,81; 29,6</t>
+          <t>17,43; 28,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,39; 38,79</t>
+          <t>26,27; 38,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,25; 48,54</t>
+          <t>40,56; 48,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,35; 26,32</t>
+          <t>19,64; 26,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,2; 41,68</t>
+          <t>33,14; 41,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,43; 47,52</t>
+          <t>39,25; 47,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,5; 32,24</t>
+          <t>24,44; 32,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,11; 51,67</t>
+          <t>43,36; 51,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>41,11; 46,78</t>
+          <t>41,13; 46,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,06; 28,36</t>
+          <t>23,16; 28,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,5; 45,26</t>
+          <t>39,37; 45,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,96; 45,87</t>
+          <t>38,97; 45,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,25; 27,17</t>
+          <t>21,36; 27,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,0; 38,17</t>
+          <t>32,19; 38,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,03; 50,33</t>
+          <t>44,18; 50,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,06; 39,44</t>
+          <t>33,19; 39,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,83; 46,07</t>
+          <t>39,94; 46,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>42,18; 46,88</t>
+          <t>42,42; 47,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,06; 32,4</t>
+          <t>28,03; 32,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,77; 41,39</t>
+          <t>37,07; 41,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,89; 36,32</t>
+          <t>28,96; 36,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,84; 24,23</t>
+          <t>17,77; 24,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,62; 36,86</t>
+          <t>29,83; 36,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,96; 42,43</t>
+          <t>35,26; 42,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,1; 31,47</t>
+          <t>24,92; 31,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,19; 43,72</t>
+          <t>36,29; 43,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,12; 38,45</t>
+          <t>33,36; 38,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,3; 26,8</t>
+          <t>22,2; 26,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,09; 39,05</t>
+          <t>34,1; 39,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,1; 46,41</t>
+          <t>40,13; 46,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,02; 24,41</t>
+          <t>18,95; 24,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,83; 34,92</t>
+          <t>28,78; 34,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,71; 56,05</t>
+          <t>49,78; 56,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,51; 33,44</t>
+          <t>27,58; 33,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,44; 45,63</t>
+          <t>39,24; 45,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>45,94; 50,53</t>
+          <t>46,23; 50,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,11; 28,18</t>
+          <t>23,95; 27,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35,3; 39,67</t>
+          <t>35,33; 39,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,35; 42,79</t>
+          <t>39,34; 42,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,06; 24,18</t>
+          <t>21,01; 23,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,12; 35,42</t>
+          <t>32,18; 35,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,28; 47,71</t>
+          <t>44,43; 47,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,39; 32,61</t>
+          <t>29,33; 32,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,95; 44,57</t>
+          <t>40,86; 44,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,39; 44,89</t>
+          <t>42,4; 44,88</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,79</t>
+          <t>25,8; 27,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>37,13; 39,51</t>
+          <t>37,19; 39,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P34A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,03; 56,15</t>
+          <t>37,47; 56,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,53; 34,45</t>
+          <t>16,83; 32,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,42; 34,59</t>
+          <t>17,93; 34,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,33; 44,23</t>
+          <t>25,19; 44,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,82; 39,71</t>
+          <t>23,67; 39,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,11; 31,2</t>
+          <t>14,97; 31,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,16; 48,17</t>
+          <t>29,83; 47,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,69; 43,42</t>
+          <t>30,12; 43,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,57; 45,31</t>
+          <t>33,08; 45,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,43; 28,48</t>
+          <t>17,79; 29,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,27; 38,87</t>
+          <t>26,34; 38,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,92; 41,16</t>
+          <t>29,59; 40,88</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,56; 48,8</t>
+          <t>40,22; 48,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,64; 26,49</t>
+          <t>19,23; 26,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,14; 41,37</t>
+          <t>33,65; 41,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,13; 42,9</t>
+          <t>33,92; 43,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,25; 47,46</t>
+          <t>39,34; 47,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,44; 32,2</t>
+          <t>24,12; 31,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,36; 51,77</t>
+          <t>43,28; 51,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,0; 41,5</t>
+          <t>35,08; 41,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>41,13; 46,89</t>
+          <t>40,8; 46,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,16; 28,34</t>
+          <t>22,82; 28,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,37; 45,19</t>
+          <t>39,14; 45,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>35,72; 41,16</t>
+          <t>35,75; 41,09</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,97; 45,31</t>
+          <t>39,03; 45,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,36; 27,07</t>
+          <t>21,22; 27,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,19; 38,39</t>
+          <t>31,95; 37,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,15; 34,91</t>
+          <t>26,57; 35,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,18; 50,37</t>
+          <t>43,5; 50,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,19; 39,52</t>
+          <t>33,35; 39,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,94; 46,27</t>
+          <t>39,68; 46,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,2; 40,9</t>
+          <t>35,2; 40,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>42,42; 47,25</t>
+          <t>42,26; 46,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,03; 32,45</t>
+          <t>28,26; 32,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,07; 41,69</t>
+          <t>36,82; 41,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,49; 37,02</t>
+          <t>31,43; 37,13</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,96; 36,51</t>
+          <t>28,98; 36,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,77; 24,24</t>
+          <t>17,66; 23,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,83; 36,89</t>
+          <t>29,91; 36,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,38; 38,64</t>
+          <t>30,5; 38,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,26; 42,42</t>
+          <t>35,75; 42,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,92; 31,79</t>
+          <t>25,07; 32,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,29; 43,71</t>
+          <t>36,42; 43,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,31; 47,04</t>
+          <t>26,98; 46,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,36; 38,42</t>
+          <t>33,31; 38,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,2; 26,58</t>
+          <t>22,56; 27,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,1; 39,16</t>
+          <t>34,01; 39,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,55; 41,17</t>
+          <t>28,91; 41,05</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,13; 46,6</t>
+          <t>40,17; 46,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,95; 24,71</t>
+          <t>19,19; 24,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,78; 34,73</t>
+          <t>29,01; 35,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,99; 32,29</t>
+          <t>26,12; 32,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,78; 56,23</t>
+          <t>50,0; 56,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,58; 33,09</t>
+          <t>27,74; 33,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,24; 45,76</t>
+          <t>39,64; 45,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,1; 42,9</t>
+          <t>37,43; 43,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,23; 50,81</t>
+          <t>45,99; 50,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,95; 27,95</t>
+          <t>24,35; 28,46</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35,33; 39,76</t>
+          <t>35,25; 39,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>33,0; 37,3</t>
+          <t>32,82; 37,08</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,34; 42,7</t>
+          <t>39,18; 42,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,52 +1434,52 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,18; 35,4</t>
+          <t>32,19; 35,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,34; 34,39</t>
+          <t>30,61; 34,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,43; 47,86</t>
+          <t>44,36; 47,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,33; 32,53</t>
+          <t>29,27; 32,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,86; 44,49</t>
+          <t>41,15; 44,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,19; 40,84</t>
+          <t>35,53; 41,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,4; 44,88</t>
+          <t>42,42; 44,95</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,8; 27,93</t>
+          <t>25,74; 27,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>37,19; 39,58</t>
+          <t>37,31; 39,61</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>34,02; 37,35</t>
+          <t>33,95; 37,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46,82%</t>
+          <t>44,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>35,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>41,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>45,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>38,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>43,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>25,14%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>40,64%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>38,44%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,47; 56,69</t>
+          <t>41,38; 49,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,83; 32,94</t>
+          <t>20,09; 26,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,93; 34,95</t>
+          <t>31,65; 39,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,19; 44,34</t>
+          <t>34,23; 43,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,67; 39,48</t>
+          <t>37,79; 45,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,97; 31,31</t>
+          <t>23,79; 30,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,83; 47,67</t>
+          <t>42,2; 49,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,12; 43,4</t>
+          <t>35,48; 41,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,08; 45,35</t>
+          <t>40,46; 45,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,79; 29,22</t>
+          <t>22,95; 27,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,34; 38,33</t>
+          <t>37,99; 43,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,59; 40,88</t>
+          <t>36,02; 41,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>44,43%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,51%</t>
+          <t>47,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>43,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43,97%</t>
+          <t>44,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>42,38%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>31,76%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,22; 48,53</t>
+          <t>39,03; 45,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,23; 26,7</t>
+          <t>21,22; 27,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,65; 41,49</t>
+          <t>31,95; 37,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,92; 43,04</t>
+          <t>13,52; 34,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,34; 47,37</t>
+          <t>43,5; 50,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,12; 31,92</t>
+          <t>33,35; 39,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,28; 51,66</t>
+          <t>39,68; 46,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,08; 41,53</t>
+          <t>35,74; 41,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,8; 46,92</t>
+          <t>42,26; 46,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,82; 28,11</t>
+          <t>28,26; 32,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,14; 45,07</t>
+          <t>36,82; 41,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>35,75; 41,09</t>
+          <t>20,94; 36,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,12%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>34,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>47,2%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>28,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>39,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,97%</t>
+          <t>37,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,67%</t>
+          <t>35,88%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
+          <t>36,53%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>35,94%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,03; 45,44</t>
+          <t>28,98; 36,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,22; 27,0</t>
+          <t>17,66; 23,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,95; 37,94</t>
+          <t>29,91; 36,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,57; 35,23</t>
+          <t>30,28; 38,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,5; 50,28</t>
+          <t>35,75; 42,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,35; 39,5</t>
+          <t>25,07; 32,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,68; 46,03</t>
+          <t>36,42; 43,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,2; 40,62</t>
+          <t>20,06; 49,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>42,26; 46,74</t>
+          <t>33,31; 38,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,26; 32,36</t>
+          <t>22,56; 27,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,82; 41,47</t>
+          <t>34,01; 39,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,43; 37,13</t>
+          <t>23,21; 42,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>43,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>31,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>29,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>52,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>42,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>48,33%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>33,81%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,98; 36,41</t>
+          <t>40,17; 46,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,66; 23,62</t>
+          <t>19,19; 24,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,91; 36,86</t>
+          <t>29,01; 35,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,5; 38,27</t>
+          <t>26,09; 32,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,75; 42,94</t>
+          <t>50,0; 56,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,07; 32,08</t>
+          <t>27,74; 33,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,42; 43,57</t>
+          <t>39,64; 45,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,98; 46,89</t>
+          <t>29,79; 41,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,31; 38,64</t>
+          <t>45,99; 50,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,56; 27,0</t>
+          <t>24,35; 28,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,01; 39,03</t>
+          <t>35,25; 39,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,91; 41,05</t>
+          <t>30,03; 36,22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,26%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>33,82%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>52,99%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>38,37%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>34,53%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,17; 46,82</t>
+          <t>39,18; 42,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,19; 24,61</t>
+          <t>21,01; 23,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,01; 35,17</t>
+          <t>32,19; 35,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,12; 32,15</t>
+          <t>24,52; 33,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,0; 56,2</t>
+          <t>44,36; 47,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,74; 33,22</t>
+          <t>29,27; 32,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,64; 45,84</t>
+          <t>41,15; 44,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,43; 43,1</t>
+          <t>31,84; 41,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>45,99; 50,49</t>
+          <t>42,42; 44,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,35; 28,46</t>
+          <t>25,74; 27,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35,25; 39,61</t>
+          <t>37,31; 39,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>32,82; 37,08</t>
+          <t>30,02; 36,85</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>41,07%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>22,47%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>33,82%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>32,62%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>46,13%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>30,95%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>42,72%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>39,05%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>43,63%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>26,79%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>38,37%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>36,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>39,18; 42,67</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>21,01; 23,9</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>32,19; 35,62</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>30,61; 34,53</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>44,36; 47,95</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>29,27; 32,43</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>41,15; 44,52</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>35,53; 41,15</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>42,42; 44,95</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>25,74; 27,83</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>37,31; 39,61</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>33,95; 37,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P34A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>41,38; 49,25</t>
+          <t>41,27; 48,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,09; 26,53</t>
+          <t>19,84; 26,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,65; 39,23</t>
+          <t>31,38; 39,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,23; 43,15</t>
+          <t>34,51; 42,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,79; 45,21</t>
+          <t>37,91; 45,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,79; 30,59</t>
+          <t>23,45; 30,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,2; 49,72</t>
+          <t>42,28; 49,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,48; 41,59</t>
+          <t>35,36; 41,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,46; 45,74</t>
+          <t>40,66; 45,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,95; 27,74</t>
+          <t>22,8; 27,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,99; 43,47</t>
+          <t>38,02; 43,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,02; 41,05</t>
+          <t>35,82; 41,06</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,03; 45,44</t>
+          <t>38,67; 45,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,22; 27,0</t>
+          <t>21,35; 27,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,95; 37,94</t>
+          <t>32,48; 38,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,52; 34,52</t>
+          <t>14,69; 34,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,5; 50,28</t>
+          <t>44,21; 50,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,35; 39,5</t>
+          <t>33,34; 39,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,68; 46,03</t>
+          <t>39,81; 46,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,74; 41,14</t>
+          <t>35,88; 41,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>42,26; 46,74</t>
+          <t>42,41; 47,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,26; 32,36</t>
+          <t>28,11; 32,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,82; 41,47</t>
+          <t>36,77; 41,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,94; 36,67</t>
+          <t>21,49; 36,48</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,98; 36,41</t>
+          <t>29,17; 36,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,66; 23,62</t>
+          <t>17,89; 23,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,91; 36,86</t>
+          <t>29,68; 36,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,28; 38,02</t>
+          <t>30,48; 38,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,75; 42,94</t>
+          <t>35,35; 42,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,07; 32,08</t>
+          <t>24,75; 31,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,42; 43,57</t>
+          <t>36,07; 43,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,06; 49,69</t>
+          <t>19,21; 49,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,31; 38,64</t>
+          <t>33,3; 38,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,56; 27,0</t>
+          <t>22,21; 27,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>34,01; 39,03</t>
+          <t>34,08; 39,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,21; 42,29</t>
+          <t>22,55; 42,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,17; 46,82</t>
+          <t>40,15; 46,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,19; 24,61</t>
+          <t>19,07; 24,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,01; 35,17</t>
+          <t>28,94; 34,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,09; 32,18</t>
+          <t>26,0; 32,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,0; 56,2</t>
+          <t>50,12; 56,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,74; 33,22</t>
+          <t>27,61; 33,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,64; 45,84</t>
+          <t>39,57; 45,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,79; 41,48</t>
+          <t>30,69; 41,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,99; 50,49</t>
+          <t>45,82; 50,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,35; 28,46</t>
+          <t>24,16; 28,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,25; 39,61</t>
+          <t>35,57; 39,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,03; 36,22</t>
+          <t>30,21; 36,37</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>39,18; 42,67</t>
+          <t>39,54; 42,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,01; 23,9</t>
+          <t>21,05; 24,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,19; 35,62</t>
+          <t>32,17; 35,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,52; 33,86</t>
+          <t>23,33; 33,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,36; 47,95</t>
+          <t>44,33; 47,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,27; 32,43</t>
+          <t>29,29; 32,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,15; 44,52</t>
+          <t>40,96; 44,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,84; 41,39</t>
+          <t>30,91; 41,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42,42; 44,95</t>
+          <t>42,41; 44,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,74; 27,83</t>
+          <t>25,73; 27,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37,31; 39,61</t>
+          <t>37,04; 39,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,02; 36,85</t>
+          <t>30,08; 37,09</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no realiza actividad física en su tiempo libre</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>307797</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>162371</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>238197</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>243944</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>283604</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>189481</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>309459</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>258789</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>591400</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>351853</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>547657</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>502734</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>283346; 334021</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>139382; 185323</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>211741; 264147</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>218388; 272029</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>259409; 309943</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>163432; 212987</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>284475; 335060</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>238708; 279416</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>557287; 626877</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>319114; 385950</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>512339; 589506</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>468440; 537061</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>397984</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>244775</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>359008</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>313592</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>449352</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>373899</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>448543</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>368422</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>847336</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>618675</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>807552</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>682014</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>365467; 427865</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>217382; 274926</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>332117; 394731</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>174806; 408954</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>420893; 480059</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>344081; 404912</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>415214; 481108</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>343461; 397446</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>804475; 892183</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>576230; 662423</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>759400; 851480</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>461589; 783420</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>219106</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>157360</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>252170</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>239711</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>262281</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>218752</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>312067</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>347823</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>481388</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>376112</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>564236</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>587534</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>195485; 244199</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>135563; 181698</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>225450; 279576</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>214450; 270152</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>237277; 287892</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>192095; 245157</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>283148; 339690</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>178820; 463624</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>446744; 518816</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>340692; 415570</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>526438; 604857</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>368607; 693280</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>402240</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>205223</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>298569</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>268855</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>535826</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>318696</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>444298</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>411977</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>938065</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>523919</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>742867</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>680832</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>373321; 432168</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>180558; 232275</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>271296; 327861</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>240220; 298414</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>506827; 570211</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>290401; 348270</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>413040; 478115</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>334475; 452991</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>889423; 975783</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>482916; 565409</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>704838; 790196</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>608302; 732443</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1291</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1473</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2167</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2764</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2496</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3328</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1327127</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>769729</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1147944</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1066102</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1531062</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1100829</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1514368</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1387012</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2858190</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1870558</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2662312</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2453114</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1277681; 1387470</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>720971; 825293</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1091965; 1204174</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>804984; 1168999</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1471330; 1592159</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1042002; 1157285</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1451762; 1571420</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1129133; 1500600</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2777688; 2943935</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1796791; 1940903</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2570329; 2735966</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2136716; 2634551</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>